--- a/biology/Botanique/Chalciporus_amarellus/Chalciporus_amarellus.xlsx
+++ b/biology/Botanique/Chalciporus_amarellus/Chalciporus_amarellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet nain, Bolet un peu amer, Bolet nain à pores roses
 Chalciporus amarellus, le Bolet nain, est une espèce de champignon (Fungi) basidiomycète du genre Chalciporus dans la famille des Boletaceae. Il est caractérisé par son chapeau crème, ses pores carmin et sa saveur légèrement amère.
@@ -512,62 +524,55 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Chalciporus amarellus (Quél.) Bataille, 1908[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus amarellus Quél., 1883[1].
-Synonymes
-Chalciporus amarellus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Chalciporus amarellus (Quél.) Bataille, 1908.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus amarellus Quél., 1883.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chalciporus amarellus a pour synonymes :
 Boletus amarellus Quél., 1883
 Chalciporus piperatus var. amarellus (Quél.) Pilát &amp; Dermek, 1974
 Suillus amarellus (Quél.) Kuntze, 1898
 Suillus piperatus var. amarellus (Quél.) Singer, 1945
 Versipellis amarella (Quél.) Quél., 1886
-Versipellis amarella (Quélet) Quélet, 1886
-Phylogénie
-Ce bolet a été décrit pour la première fois en 1883 par le mycologue français Lucien Quélet sous le nom de Boletus amarellus, puis transféré dans le genre Chalciporus par Frédéric Bataille en 1908.
-Étymologie
-L'épithète spécifique amarellus, signifiant "amer" accompagné d'un suffixe diminutif, fait référence à sa faible amertume.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet nain[2], bolet un peu amer, bolet nain à pores roses[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chalciporus_amarellus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Chalciporus amarellus, le Bolet nain, sont les suivantes :
-Son chapeau mesure jusqu'à 8 cm, il est ivoire, crème, ochracé pâle, jaunâtre, rarement tacheté de rose ou de rougeâtre[3],[4].
-L'hyménophore présente des tubes de couleur carmin ou rouge rosé. Les pores sont carmins ou rouge rosé. Ils sont immuables[3].
-Son stipe est cylindrique ou ventriculaire, généralement aminci vers la base, blanc ou crème à jaunâtre, teinté de carmin sous les tubes[3].
-La chair est crème ou jaunâtre, jaune à la base du stipe, immuable. La saveur est légèrement âcre ou amère[3], l'amertume est parfois imperceptible[4]. L'odeur n'est pas distinctive[3].
-Caractéristiques microscopiques
-Ses spores mesurent 10 à 13 μm x 4 à 5 μm[3].
-</t>
+Versipellis amarella (Quélet) Quélet, 1886</t>
         </is>
       </c>
     </row>
@@ -592,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon vient sous conifères[3]. Il est montagnard, venant sur sol calcaire[4].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bolet a été décrit pour la première fois en 1883 par le mycologue français Lucien Quélet sous le nom de Boletus amarellus, puis transféré dans le genre Chalciporus par Frédéric Bataille en 1908.
 </t>
         </is>
       </c>
@@ -623,12 +634,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Bolet nain possède une amertume légère ou bien inexistante qui, en théorie, ne devrait pas empêcher son utilisation alimentaire après la cuisson. Il est consommé occasionnellement, mais peu d'informations sont disponibles sur son niveau de sécurité alimentaire. On peut considérer que sa comestibilité est sans valeur[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique amarellus, signifiant "amer" accompagné d'un suffixe diminutif, fait référence à sa faible amertume.
 </t>
         </is>
       </c>
@@ -654,10 +671,189 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet nain, bolet un peu amer, bolet nain à pores roses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Chalciporus amarellus, le Bolet nain, sont les suivantes :
+Son chapeau mesure jusqu'à 8 cm, il est ivoire, crème, ochracé pâle, jaunâtre, rarement tacheté de rose ou de rougeâtre,.
+L'hyménophore présente des tubes de couleur carmin ou rouge rosé. Les pores sont carmins ou rouge rosé. Ils sont immuables.
+Son stipe est cylindrique ou ventriculaire, généralement aminci vers la base, blanc ou crème à jaunâtre, teinté de carmin sous les tubes.
+La chair est crème ou jaunâtre, jaune à la base du stipe, immuable. La saveur est légèrement âcre ou amère, l'amertume est parfois imperceptible. L'odeur n'est pas distinctive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10 à 13 μm x 4 à 5 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon vient sous conifères. Il est montagnard, venant sur sol calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet nain possède une amertume légère ou bien inexistante qui, en théorie, ne devrait pas empêcher son utilisation alimentaire après la cuisson. Il est consommé occasionnellement, mais peu d'informations sont disponibles sur son niveau de sécurité alimentaire. On peut considérer que sa comestibilité est sans valeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_amarellus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa petite taille et ses pores rosé carmin avec son stipe blanchâtre le rendent facilement reconnaissable. À comparer éventuellement avec Chalciporus rubinus.
 </t>
